--- a/grade-exportacao (1).xlsx
+++ b/grade-exportacao (1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15240" windowHeight="7590"/>
+    <workbookView windowWidth="20400" windowHeight="8295"/>
   </bookViews>
   <sheets>
     <sheet name="Exportar Planilha" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
   <si>
     <t>Concluida</t>
   </si>
@@ -58,88 +58,85 @@
     <t>Vitor Pereira Diogo</t>
   </si>
   <si>
-    <t>Fiorot Advogados Associados</t>
-  </si>
-  <si>
-    <t>Rodrigo (TR)</t>
-  </si>
-  <si>
-    <t>21/05/2021 | 11:04:00 a 11:04:00</t>
-  </si>
-  <si>
-    <t>TR - Mattos, Rodrigo (Corporates) 11:04 (há 1 hora) para marcia@fiorot.adv.b...</t>
-  </si>
-  <si>
-    <t>Zouain, Rizk &amp; Advogados Associados</t>
+    <t>SGMP - Schneebeli, Gimenes, Moraes e Pepe Advogado...</t>
   </si>
   <si>
     <t>SJ</t>
   </si>
   <si>
-    <t>21/05/2021 | 11:00:00 a 11:24:00</t>
-  </si>
-  <si>
-    <t>SUPFX+</t>
-  </si>
-  <si>
-    <t>TR - Nova solicitação aberta para a Thomson: 019993.</t>
-  </si>
-  <si>
-    <t>21/05/2021 | 10:48:00 a 10:48:00</t>
-  </si>
-  <si>
-    <t>Mattos, Rodrigo (Corporates) 10:48 (há 1 hora) para marcia@fiorot.adv.br, mim ...</t>
-  </si>
-  <si>
-    <t>21/05/2021 | 10:01:00 a 10:53:00</t>
-  </si>
-  <si>
-    <t>TR - Solicitações de suporte novamente encaminhadas para a Thomson: 07477372, 07...</t>
-  </si>
-  <si>
-    <t>20/05/2021 | 11:22:00 a 11:23:00</t>
-  </si>
-  <si>
-    <t>TR - Casos reabertos no sistema Salesforce: 07460674, 07460692 e 07460703.</t>
-  </si>
-  <si>
-    <t>20/05/2021 | 11:15:00 a 11:18:00</t>
-  </si>
-  <si>
-    <t>Suporte - Shopping Jurídico &lt;suporte@shopjuridico.com.br&gt; 11:18 (há 2 minutos) ...</t>
-  </si>
-  <si>
-    <t>Serviços</t>
-  </si>
-  <si>
-    <t>CJAR - Cheim Jorge e Abelha Rodrigues Advogados As...</t>
-  </si>
-  <si>
-    <t>20/05/2021 | 09:40:00 a 10:30:00</t>
-  </si>
-  <si>
-    <t>AUDITORIA SEMANAL - Elaboração e envio da auditoria financeira e de processos.</t>
-  </si>
-  <si>
-    <t>19/05/2021 | 12:18:00 a 12:18:00</t>
-  </si>
-  <si>
-    <t>TR - Mattos, Rodrigo (Corporates) 12:18 (há 2 horas) para mim Prezado Vit...</t>
-  </si>
-  <si>
-    <t>19/05/2021 | 11:50:00 a 12:04:00</t>
-  </si>
-  <si>
-    <t>TR - Suporte - Shopping Jurídico &lt;suporte@shopjuridico.com.br&gt; 12:04 (há 0 mi...</t>
-  </si>
-  <si>
-    <t>Márcia</t>
-  </si>
-  <si>
-    <t>19/05/2021 | 11:36:00 a 11:40:00</t>
-  </si>
-  <si>
-    <t>TR - Licença temporária registrada.</t>
+    <t>26/05/2021 | 15:50:00 a 16:59:00</t>
+  </si>
+  <si>
+    <t>TR - Reunião com Priscila para definir respostas para a Thomson e para Iana. Ela...</t>
+  </si>
+  <si>
+    <t>Dalla Bernardina &amp; Advogados Associados</t>
+  </si>
+  <si>
+    <t>Alessandra</t>
+  </si>
+  <si>
+    <t>26/05/2021 | 12:25:00 a 12:25:00</t>
+  </si>
+  <si>
+    <t>TR - Suporte - Shopping Jurídico &lt;suporte@shopjuridico.com.br&gt; 12:25 (há ...</t>
+  </si>
+  <si>
+    <t>26/05/2021 | 11:58:00 a 12:21:00</t>
+  </si>
+  <si>
+    <t>TR - Solicitação de suporte aberta no SGD: 020065.</t>
+  </si>
+  <si>
+    <t>fechado</t>
+  </si>
+  <si>
+    <t>26/05/2021 | 10:52:00 a 10:52:00</t>
+  </si>
+  <si>
+    <t>Me enviou e-mail informando que o REX parece estar funcionando normalmente.</t>
+  </si>
+  <si>
+    <t>Alessandra de Freitas Assis Silva &lt;alessandra@dbadv.com.br&gt; Anexos 10:52 (há 1...</t>
+  </si>
+  <si>
+    <t>26/05/2021 | 10:27:00 a 10:30:00</t>
+  </si>
+  <si>
+    <t>Me informou que o sistema ainda continua lento e está aparecendo uma mensagem de...</t>
+  </si>
+  <si>
+    <t>26/05/2021 | 10:27:00 a 10:31:00</t>
+  </si>
+  <si>
+    <t>Disse que não encontrou a dra Rúbia ainda, mas vai enviar uma mensagem para ela ...</t>
+  </si>
+  <si>
+    <t>FTSC - Faria, Tristão e Sueiro de Carvalho Advogad...</t>
+  </si>
+  <si>
+    <t>26/05/2021 | 09:56:00 a 10:21:00</t>
+  </si>
+  <si>
+    <t>TR - Solicitação de melhoria criada: 001756. Verifiquei retorno da TR a respe...</t>
+  </si>
+  <si>
+    <t>Marina</t>
+  </si>
+  <si>
+    <t>26/05/2021 | 09:27:00 a 09:32:00</t>
+  </si>
+  <si>
+    <t>Informou que realmente o sistema estava lento ontem, os carregamentos estavam de...</t>
+  </si>
+  <si>
+    <t>Iana</t>
+  </si>
+  <si>
+    <t>26/05/2021 | 08:35:00 a 08:38:00</t>
+  </si>
+  <si>
+    <t>Enviou um áudio ontem de noite dizendo que não está confiando no sistema e por i...</t>
   </si>
 </sst>
 </file>
@@ -147,10 +144,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -183,7 +180,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,6 +226,22 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,16 +253,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,96 +308,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -327,55 +324,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,127 +498,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,15 +527,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -550,21 +538,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,11 +559,44 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,156 +615,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1109,7 +1106,7 @@
     <outlinePr showOutlineSymbols="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1122,7 +1119,7 @@
     <col min="3" max="3" width="14.5714285714286"/>
     <col min="4" max="4" width="17.1428571428571"/>
     <col min="5" max="5" width="41.1428571428571"/>
-    <col min="6" max="6" width="12.1428571428571"/>
+    <col min="6" max="6" width="10"/>
     <col min="7" max="7" width="13.5714285714286"/>
     <col min="8" max="8" width="28.5714285714286" customWidth="1"/>
     <col min="9" max="9" width="11.7142857142857"/>
@@ -1170,7 +1167,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="3">
-        <v>22247</v>
+        <v>22367</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1185,13 +1182,13 @@
         <v>15</v>
       </c>
       <c r="G2" s="4">
-        <v>44337</v>
+        <v>44342</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="2" t="s">
@@ -1203,7 +1200,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3">
-        <v>21970</v>
+        <v>22391</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1218,27 +1215,25 @@
         <v>19</v>
       </c>
       <c r="G3" s="4">
-        <v>44337</v>
+        <v>44342</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="2">
-        <v>24</v>
-      </c>
-      <c r="J3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="4" ht="27" spans="1:11">
+    <row r="4" ht="13.5" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="3">
-        <v>22247</v>
+        <v>22391</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -1247,31 +1242,31 @@
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="4">
-        <v>44337</v>
+        <v>44342</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2">
         <v>23</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3">
-        <v>22247</v>
+        <v>22263</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -1280,19 +1275,19 @@
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="4">
-        <v>44337</v>
+        <v>44342</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="I5" s="2">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="2" t="s">
@@ -1304,7 +1299,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="3">
-        <v>22247</v>
+        <v>22391</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -1313,31 +1308,31 @@
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="4">
-        <v>44336</v>
+        <v>44342</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="7" ht="40.5" spans="1:11">
+    <row r="7" ht="27" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3">
-        <v>22247</v>
+        <v>22263</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
@@ -1346,23 +1341,23 @@
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G7" s="4">
-        <v>44336</v>
+        <v>44342</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I7" s="2">
         <v>3</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:11">
@@ -1370,40 +1365,40 @@
         <v>11</v>
       </c>
       <c r="B8" s="3">
-        <v>19827</v>
+        <v>22391</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="4">
-        <v>44336</v>
+        <v>44342</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I8" s="2">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3">
-        <v>22247</v>
+        <v>22263</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
@@ -1412,31 +1407,31 @@
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G9" s="4">
-        <v>44335</v>
+        <v>44342</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3">
-        <v>22247</v>
+        <v>22393</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -1445,31 +1440,31 @@
         <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="4">
-        <v>44335</v>
+        <v>44342</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I10" s="2">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="11" ht="13.5" spans="1:11">
+    <row r="11" ht="27" spans="1:11">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="3">
-        <v>22247</v>
+        <v>22391</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
@@ -1478,63 +1473,98 @@
         <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G11" s="4">
-        <v>44335</v>
+        <v>44342</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I11" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="12" ht="13.5" spans="1:11">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+    <row r="12" ht="27" spans="1:11">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>22367</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="4">
+        <v>44342</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="I12" s="2">
-        <v>148</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" ht="13.5" spans="1:11">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2">
+        <v>135</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
   </sheetData>
   <sheetProtection objects="1" scenarios="1"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="22247"/>
-    <hyperlink ref="E2" r:id="rId2" display="Fiorot Advogados Associados"/>
-    <hyperlink ref="B3" r:id="rId3" display="21970"/>
-    <hyperlink ref="E3" r:id="rId4" display="Zouain, Rizk &amp; Advogados Associados"/>
-    <hyperlink ref="B4" r:id="rId1" display="22247"/>
-    <hyperlink ref="E4" r:id="rId2" display="Fiorot Advogados Associados"/>
-    <hyperlink ref="B5" r:id="rId1" display="22247"/>
-    <hyperlink ref="E5" r:id="rId2" display="Fiorot Advogados Associados"/>
-    <hyperlink ref="B6" r:id="rId1" display="22247"/>
-    <hyperlink ref="E6" r:id="rId2" display="Fiorot Advogados Associados"/>
-    <hyperlink ref="B7" r:id="rId1" display="22247"/>
-    <hyperlink ref="E7" r:id="rId2" display="Fiorot Advogados Associados"/>
-    <hyperlink ref="B8" r:id="rId5" display="19827"/>
-    <hyperlink ref="E8" r:id="rId6" display="CJAR - Cheim Jorge e Abelha Rodrigues Advogados As..."/>
-    <hyperlink ref="B9" r:id="rId1" display="22247"/>
-    <hyperlink ref="E9" r:id="rId2" display="Fiorot Advogados Associados"/>
-    <hyperlink ref="B10" r:id="rId1" display="22247"/>
-    <hyperlink ref="E10" r:id="rId2" display="Fiorot Advogados Associados"/>
-    <hyperlink ref="B11" r:id="rId1" display="22247"/>
-    <hyperlink ref="E11" r:id="rId2" display="Fiorot Advogados Associados"/>
+    <hyperlink ref="B2" r:id="rId1" display="22367"/>
+    <hyperlink ref="E2" r:id="rId2" display="SGMP - Schneebeli, Gimenes, Moraes e Pepe Advogado..."/>
+    <hyperlink ref="B3" r:id="rId3" display="22391"/>
+    <hyperlink ref="E3" r:id="rId4" display="Dalla Bernardina &amp; Advogados Associados"/>
+    <hyperlink ref="B4" r:id="rId3" display="22391"/>
+    <hyperlink ref="E4" r:id="rId4" display="Dalla Bernardina &amp; Advogados Associados"/>
+    <hyperlink ref="B5" r:id="rId5" display="22263"/>
+    <hyperlink ref="E5" r:id="rId4" display="Dalla Bernardina &amp; Advogados Associados"/>
+    <hyperlink ref="B6" r:id="rId3" display="22391"/>
+    <hyperlink ref="E6" r:id="rId4" display="Dalla Bernardina &amp; Advogados Associados"/>
+    <hyperlink ref="B7" r:id="rId5" display="22263"/>
+    <hyperlink ref="E7" r:id="rId4" display="Dalla Bernardina &amp; Advogados Associados"/>
+    <hyperlink ref="B8" r:id="rId3" display="22391"/>
+    <hyperlink ref="E8" r:id="rId4" display="Dalla Bernardina &amp; Advogados Associados"/>
+    <hyperlink ref="B9" r:id="rId5" display="22263"/>
+    <hyperlink ref="E9" r:id="rId4" display="Dalla Bernardina &amp; Advogados Associados"/>
+    <hyperlink ref="B10" r:id="rId6" display="22393"/>
+    <hyperlink ref="E10" r:id="rId7" display="FTSC - Faria, Tristão e Sueiro de Carvalho Advogad..."/>
+    <hyperlink ref="B11" r:id="rId3" display="22391"/>
+    <hyperlink ref="E11" r:id="rId4" display="Dalla Bernardina &amp; Advogados Associados"/>
+    <hyperlink ref="B12" r:id="rId1" display="22367"/>
+    <hyperlink ref="E12" r:id="rId2" display="SGMP - Schneebeli, Gimenes, Moraes e Pepe Advogado..."/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
